--- a/testdata/invalid-testdata/excel2json/new_lists_missing_translations/list_missing_translation_cell.xlsx
+++ b/testdata/invalid-testdata/excel2json/new_lists_missing_translations/list_missing_translation_cell.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noraammann/Documents/Cloned_GitHub/dsp-tools/testdata/invalid-testdata/excel2json/new_lists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noraammann/Documents/Cloned_GitHub/dsp-tools/testdata/invalid-testdata/excel2json/new_lists_missing_translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC328427-AC14-2940-80D7-EAF35CCB8B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC8CFCC-18DA-7D42-9237-5A4C33C4FEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{A320CADF-BCB7-D643-91E4-BA6B29A80A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="good" sheetId="1" r:id="rId1"/>
     <sheet name="missing_translation_cell" sheetId="5" r:id="rId2"/>
-    <sheet name="missing_translation_col" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>ID (optional)</t>
   </si>
@@ -78,10 +77,10 @@
     <t>de_1</t>
   </si>
   <si>
-    <t>Knoten1</t>
-  </si>
-  <si>
     <t>de_list</t>
+  </si>
+  <si>
+    <t>List de</t>
   </si>
 </sst>
 </file>
@@ -564,7 +563,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,7 +576,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -591,7 +590,9 @@
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
@@ -600,65 +601,16 @@
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="E3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BA4008-0A92-2545-A5BB-AFE07A9CC3EB}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/testdata/invalid-testdata/excel2json/new_lists_missing_translations/list_missing_translation_cell.xlsx
+++ b/testdata/invalid-testdata/excel2json/new_lists_missing_translations/list_missing_translation_cell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noraammann/Documents/Cloned_GitHub/dsp-tools/testdata/invalid-testdata/excel2json/new_lists_missing_translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC8CFCC-18DA-7D42-9237-5A4C33C4FEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADF20EF-8D20-BC4E-981F-B6FA6983CEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{A320CADF-BCB7-D643-91E4-BA6B29A80A1C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>ID (optional)</t>
   </si>
@@ -81,6 +81,21 @@
   </si>
   <si>
     <t>List de</t>
+  </si>
+  <si>
+    <t>en_comments</t>
+  </si>
+  <si>
+    <t>de_comments</t>
+  </si>
+  <si>
+    <t>Knoten 2</t>
+  </si>
+  <si>
+    <t>List Missing English Comment</t>
+  </si>
+  <si>
+    <t>Node Missing German Comment</t>
   </si>
 </sst>
 </file>
@@ -560,56 +575,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDE6460-EE30-C447-94E6-209964E0B021}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/testdata/invalid-testdata/excel2json/new_lists_missing_translations/list_missing_translation_cell.xlsx
+++ b/testdata/invalid-testdata/excel2json/new_lists_missing_translations/list_missing_translation_cell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noraammann/Documents/Cloned_GitHub/dsp-tools/testdata/invalid-testdata/excel2json/new_lists_missing_translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADF20EF-8D20-BC4E-981F-B6FA6983CEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6075821-658B-264E-B3FC-775B7BFAEF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{A320CADF-BCB7-D643-91E4-BA6B29A80A1C}"/>
+    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{A320CADF-BCB7-D643-91E4-BA6B29A80A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="good" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>ID (optional)</t>
   </si>
@@ -479,90 +479,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC6F95E-C0E3-DB47-9932-4E7CC258AF84}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -577,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDE6460-EE30-C447-94E6-209964E0B021}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/testdata/invalid-testdata/excel2json/new_lists_missing_translations/list_missing_translation_cell.xlsx
+++ b/testdata/invalid-testdata/excel2json/new_lists_missing_translations/list_missing_translation_cell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noraammann/Documents/Cloned_GitHub/dsp-tools/testdata/invalid-testdata/excel2json/new_lists_missing_translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC8CFCC-18DA-7D42-9237-5A4C33C4FEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6075821-658B-264E-B3FC-775B7BFAEF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{A320CADF-BCB7-D643-91E4-BA6B29A80A1C}"/>
+    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{A320CADF-BCB7-D643-91E4-BA6B29A80A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="good" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>ID (optional)</t>
   </si>
@@ -81,6 +81,21 @@
   </si>
   <si>
     <t>List de</t>
+  </si>
+  <si>
+    <t>en_comments</t>
+  </si>
+  <si>
+    <t>de_comments</t>
+  </si>
+  <si>
+    <t>Knoten 2</t>
+  </si>
+  <si>
+    <t>List Missing English Comment</t>
+  </si>
+  <si>
+    <t>Node Missing German Comment</t>
   </si>
 </sst>
 </file>
@@ -464,90 +479,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC6F95E-C0E3-DB47-9932-4E7CC258AF84}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -560,56 +581,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDE6460-EE30-C447-94E6-209964E0B021}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
